--- a/gm_integration_testing/test.xlsx
+++ b/gm_integration_testing/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="15900" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15900" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>url</t>
   </si>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_tip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取运营时间失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -420,9 +428,10 @@
     <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +444,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -448,6 +460,9 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
